--- a/PROPERTIES.xlsx
+++ b/PROPERTIES.xlsx
@@ -24,32 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>rent</t>
-  </si>
-  <si>
-    <t>atr</t>
-  </si>
-  <si>
-    <t>consumer_type</t>
-  </si>
-  <si>
-    <t>product_focus</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,10 +341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,116 +357,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <f ca="1">RANDBETWEEN(10000,250000)*(E1/100)*(D1/100)</f>
+        <v>34836.235199999996</v>
+      </c>
+      <c r="C1" s="1">
+        <f ca="1">B1/RANDBETWEEN(100,900)</f>
+        <v>47.331841304347819</v>
+      </c>
+      <c r="D1" s="1">
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>48</v>
+      </c>
+      <c r="E1" s="1">
+        <f ca="1">RANDBETWEEN(25,500)</f>
+        <v>213</v>
+      </c>
+      <c r="F1">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <f ca="1">RANDBETWEEN(1,2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <f ca="1">RANDBETWEEN(10000,250000)*(E2/100)*(D2/100)</f>
-        <v>81930.707200000004</v>
+        <f t="shared" ref="B2:B9" ca="1" si="0">RANDBETWEEN(10000,250000)*(E2/100)*(D2/100)</f>
+        <v>932484.67200000002</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">B2/RANDBETWEEN(100,900)</f>
-        <v>350.13122735042737</v>
+        <f t="shared" ref="C2:C23" ca="1" si="1">B2/RANDBETWEEN(100,900)</f>
+        <v>1074.2910967741936</v>
       </c>
       <c r="D2" s="1">
-        <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>16</v>
+        <f t="shared" ref="D2:D35" ca="1" si="2">RANDBETWEEN(0,100)</f>
+        <v>96</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">RANDBETWEEN(25,500)</f>
-        <v>212</v>
+        <f t="shared" ref="E2:E35" ca="1" si="3">RANDBETWEEN(25,500)</f>
+        <v>420</v>
       </c>
       <c r="F2">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <f t="shared" ref="F2:G17" ca="1" si="4">RANDBETWEEN(1,3)</f>
+        <v>1</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="H2">
-        <f ca="1">RANDBETWEEN(1,2)</f>
-        <v>2</v>
+        <f t="shared" ref="H2:H35" ca="1" si="5">RANDBETWEEN(1,2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B10" ca="1" si="0">RANDBETWEEN(10000,250000)*(E3/100)*(D3/100)</f>
-        <v>91638.864000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2954.6747999999998</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C24" ca="1" si="1">B3/RANDBETWEEN(100,900)</f>
-        <v>170.01644526901671</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4297973013493248</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D24" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E24" ca="1" si="3">RANDBETWEEN(25,500)</f>
-        <v>288</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>323</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:G18" ca="1" si="4">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H24" ca="1" si="5">RANDBETWEEN(1,2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>357892.364</v>
+        <v>17975.595000000001</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>441.84242469135802</v>
+        <v>75.846392405063298</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="4"/>
@@ -508,23 +490,23 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>534388.13190000004</v>
+        <v>35563.799099999997</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1043.7268201171876</v>
+        <v>75.347031991525412</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>499</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="4"/>
@@ -532,7 +514,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="5"/>
@@ -541,60 +523,60 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>108296.93519999999</v>
+        <v>872395.33499999996</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>193.0426652406417</v>
+        <v>1354.6511413043477</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9763.2150000000001</v>
+        <v>483410.46599999996</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16.464106239460371</v>
+        <v>1093.6888371040723</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>350</v>
+        <v>434</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="4"/>
@@ -607,60 +589,60 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>207899.18459999998</v>
+        <v>382393.75679999997</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>915.85543876651968</v>
+        <v>466.90324395604392</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5890.7142000000003</v>
+        <v>357679.09759999998</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2367496314496318</v>
+        <v>1255.0143775438596</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="4"/>
@@ -673,23 +655,23 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>50919.195599999999</v>
+        <f t="shared" ref="B10:B23" ca="1" si="6">RANDBETWEEN(10000,250000)*(E10/100)*(D10/100)</f>
+        <v>355052.55729999999</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>67.264459180977539</v>
+        <v>451.72081081424932</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>442</v>
+        <v>217</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="4"/>
@@ -697,32 +679,32 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" ref="B11:B24" ca="1" si="6">RANDBETWEEN(10000,250000)*(E11/100)*(D11/100)</f>
-        <v>92985.928</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>179660.04160000003</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>261.93219154929579</v>
+        <v>314.64105359019271</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
@@ -739,23 +721,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>419557.02</v>
+        <v>86373.403999999995</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>711.113593220339</v>
+        <v>375.53653913043473</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="4"/>
@@ -767,32 +749,32 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>324861.84000000003</v>
+        <v>145701.06200000001</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>904.90763231197775</v>
+        <v>762.83278534031422</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>480</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
@@ -800,65 +782,65 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>112493.4186</v>
+        <v>17836.738299999997</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>144.40746931964057</v>
+        <v>47.312303183023865</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34799.298000000003</v>
+        <v>552574.14959999989</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>79.814903669724771</v>
+        <v>1217.1236775330394</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>190</v>
+        <v>491</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
@@ -871,56 +853,56 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>30171.013599999995</v>
+        <v>4927.8869999999997</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34.168758323895801</v>
+        <v>6.0763094944512943</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>481</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>478365.88799999992</v>
+        <v>88066.14</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>670.91989901823274</v>
+        <v>160.99842778793419</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>286</v>
+        <v>402</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="4"/>
@@ -928,39 +910,39 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>306631.52100000001</v>
+        <v>112739.44500000001</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>376.23499509202458</v>
+        <v>1006.6021875</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="F18:G23" ca="1" si="7">RANDBETWEEN(1,3)</f>
         <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="H18">
@@ -970,31 +952,31 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>139431.87299999999</v>
+        <v>133186.56780000002</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>178.5299270166453</v>
+        <v>435.25022156862752</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>278</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:G24" ca="1" si="7">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="5"/>
@@ -1003,31 +985,31 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>160537.9578</v>
+        <v>90434.719200000007</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>867.77274486486488</v>
+        <v>334.94340444444447</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="5"/>
@@ -1036,27 +1018,27 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>228997.64999999997</v>
+        <v>408320.3358</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>636.10458333333327</v>
+        <v>1193.9191105263158</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>351</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="7"/>
@@ -1069,23 +1051,23 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>115472.87079999999</v>
+        <v>1154071.1258999999</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>276.25088708133967</v>
+        <v>3444.9884355223876</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>497</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="7"/>
@@ -1093,7 +1075,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="5"/>
@@ -1102,68 +1084,431 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>109271.232</v>
+        <v>49772.24</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>138.31801518987342</v>
+        <v>160.03935691318327</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>63241.617599999998</v>
+        <f ca="1">RANDBETWEEN(10000,250000)*(E24/100)*(D24/100)</f>
+        <v>403679.92499999999</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>89.450661386138606</v>
+        <f ca="1">B24/RANDBETWEEN(100,900)</f>
+        <v>629.76587363494536</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <f ca="1">RANDBETWEEN(0,100)</f>
+        <v>90</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>166</v>
+        <f ca="1">RANDBETWEEN(25,500)</f>
+        <v>275</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" ref="B25:B35" ca="1" si="8">RANDBETWEEN(10000,250000)*(E25/100)*(D25/100)</f>
+        <v>98723.493100000022</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:C35" ca="1" si="9">B25/RANDBETWEEN(100,900)</f>
+        <v>179.82421329690351</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>389</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:G35" ca="1" si="10">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>34030.205999999998</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>60.986032258064512</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>252.80639999999997</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.29812075471698107</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>27575.370000000003</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>66.446674698795192</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3128.5682999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.0788446428571428</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>602048.15330000001</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>983.73881258169934</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>451</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>88010.269199999995</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>109.7384902743142</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>93802.689499999993</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>633.80195608108102</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>377</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>128237.53019999999</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>1269.6785168316831</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>14992.6898</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>61.953263636363637</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>116505.228</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>326.34517647058823</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
